--- a/CPI Forecast/cpi_data.xlsx
+++ b/CPI Forecast/cpi_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis_\Documents\Github - Main\Machine-Learning-Projects-Python-\CPI Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5959C00-369D-4ABC-B45E-24ABA4840467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231CF5DB-3F40-4E31-ADFE-3FBD5B3922C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="2124" windowWidth="28452" windowHeight="13824" xr2:uid="{CC493C74-0F00-4BD7-83BF-8856A06ACF95}"/>
+    <workbookView xWindow="3024" yWindow="3876" windowWidth="24792" windowHeight="12204" xr2:uid="{CC493C74-0F00-4BD7-83BF-8856A06ACF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A230BBEF-5CD2-4096-BFCE-BE681CEAF412}">
-  <dimension ref="A1:C906"/>
+  <dimension ref="A1:C908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="A906" sqref="A906"/>
+    <sheetView tabSelected="1" topLeftCell="A900" workbookViewId="0">
+      <selection activeCell="D911" sqref="D911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10070,6 +10070,28 @@
         <v>5.32864</v>
       </c>
     </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A907" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B907" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C907" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A908" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B908" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C908" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
